--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5E51913-3567-4569-9225-A11C8BCC8868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D7C574-C860-4070-8ED4-9676BC3C3D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>Nominal Default-free rate  (use 10Y Treasury yield if available) =</t>
   </si>
@@ -46,13 +47,272 @@
   </si>
   <si>
     <t>Required Margin of Safety:</t>
+  </si>
+  <si>
+    <t># To-do with insights from "Big Debt Cycle"</t>
+  </si>
+  <si>
+    <t>PART III: Country Risk Assessment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⇒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Interest rate risk premium</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Yield spreads</t>
+  </si>
+  <si>
+    <t>4. Interest rates</t>
+  </si>
+  <si>
+    <t>3. Economic outlook</t>
+  </si>
+  <si>
+    <t>2. Inflation</t>
+  </si>
+  <si>
+    <t>Hot - Stimulative</t>
+  </si>
+  <si>
+    <t>Cold - Tightening</t>
+  </si>
+  <si>
+    <t>1. Central bank behavior</t>
+  </si>
+  <si>
+    <t>PART II: Interest Rate Risk Assessment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒ Financial market</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>risk:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Is the market sentiment not in extreme?</t>
+    </r>
+  </si>
+  <si>
+    <t>Capital market Sentiment</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Cold - Caution and discipline</t>
+  </si>
+  <si>
+    <t>16. Popular qualities:</t>
+  </si>
+  <si>
+    <t>Hot - Strong</t>
+  </si>
+  <si>
+    <t>14. Recent performance/Prospective returns:</t>
+  </si>
+  <si>
+    <t>Cold - Only the best can raise money</t>
+  </si>
+  <si>
+    <t>13. Funds:</t>
+  </si>
+  <si>
+    <t>Mixed - "Market has bottomed"</t>
+  </si>
+  <si>
+    <t>Cold - "Worse is yet to come"</t>
+  </si>
+  <si>
+    <t>12. Markets:</t>
+  </si>
+  <si>
+    <t>Investment Sentiment</t>
+  </si>
+  <si>
+    <t>Cold - Many</t>
+  </si>
+  <si>
+    <t>11. Sellers:</t>
+  </si>
+  <si>
+    <t>Cold - Pessimistic</t>
+  </si>
+  <si>
+    <t>9. Investors:</t>
+  </si>
+  <si>
+    <t>Cold - Low</t>
+  </si>
+  <si>
+    <t>15. Asset prices:</t>
+  </si>
+  <si>
+    <t>Hot - Happy to hold</t>
+  </si>
+  <si>
+    <t>Cold - Rushing for the exits</t>
+  </si>
+  <si>
+    <t>10. Asset owners:</t>
+  </si>
+  <si>
+    <t>Avalibility of Money</t>
+  </si>
+  <si>
+    <t>Cold - Wide</t>
+  </si>
+  <si>
+    <t>8. Yield Spreads:</t>
+  </si>
+  <si>
+    <t>Cold - High</t>
+  </si>
+  <si>
+    <t>7. Interest rates:</t>
+  </si>
+  <si>
+    <t>Cold - Restrictive</t>
+  </si>
+  <si>
+    <t>6. Terms:</t>
+  </si>
+  <si>
+    <t>Cold - Scarce</t>
+  </si>
+  <si>
+    <t>5. Financing:</t>
+  </si>
+  <si>
+    <t>Macro Sentiment</t>
+  </si>
+  <si>
+    <t>Cold - Rising</t>
+  </si>
+  <si>
+    <t>4. Likelihood of distress</t>
+  </si>
+  <si>
+    <t>Cold - Reticent</t>
+  </si>
+  <si>
+    <t>3. Lenders:</t>
+  </si>
+  <si>
+    <t>Hot - Positive</t>
+  </si>
+  <si>
+    <t>Cold - Negative</t>
+  </si>
+  <si>
+    <t>2. Outlook:</t>
+  </si>
+  <si>
+    <t>Cold - Sluggish</t>
+  </si>
+  <si>
+    <t>1. Economy:</t>
+  </si>
+  <si>
+    <t>PART I: Market Sentiment Assessment</t>
+  </si>
+  <si>
+    <t>Current Environment Assessment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⇒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Adj. Rf</t>
+    </r>
+  </si>
+  <si>
+    <t>+ Interest Rate Risk Premium</t>
+  </si>
+  <si>
+    <t>⇒ Real risk-free rate +</t>
+  </si>
+  <si>
+    <t>Discount rate:</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/CORESTICKM159SFRBATL</t>
+  </si>
+  <si>
+    <t>US CPI</t>
+  </si>
+  <si>
+    <t>China CPI</t>
+  </si>
+  <si>
+    <t>HK CPI</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/FPCPITOTLZGHKG</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/CPALTT01CNM659N</t>
+  </si>
+  <si>
+    <t>Inflation rate (use 10Y breakeven rate if too volatile) =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +353,78 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,8 +455,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -171,11 +507,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,8 +660,100 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
-  <dimension ref="A2:H6"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,9 +1118,813 @@
         <v>3.8159999999999999E-2</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="46">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46">
+        <v>1.5679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="47"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="1" sqref="D3" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{05C6860A-F093-492E-A0AF-7D2134D3C356}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{286AD228-59EC-4FB0-A64C-3CB536B18819}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{44FDAB98-97BD-4C87-B095-E2260A9245A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB43275-BEC1-4DF6-B56D-B5F180583A40}">
+  <dimension ref="A2:F40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="45">
+        <f>Macro!D6-Macro!D7</f>
+        <v>2.64E-2</v>
+      </c>
+      <c r="F3" s="45">
+        <f>Macro!F6-Macro!F7</f>
+        <v>7.9999999999999967E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="43">
+        <f>D37</f>
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41">
+        <f>F37</f>
+        <v>3.3600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="39">
+        <f>IF(C29=4,1.2, IF(C29=-4,1.1,1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="14">
+        <f>SUM(D3:D4)</f>
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="E5" s="38">
+        <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <f>SUM(F3:F4)</f>
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="35" t="str">
+        <f>D2</f>
+        <v>US</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="12" t="str">
+        <f>F2</f>
+        <v>China</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="26">
+        <f>IF(LEFT(D9,1)="H",1,IF(LEFT(D9,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="26">
+        <f>IF(LEFT(F9,1)="H",1,IF(LEFT(F9,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="26">
+        <f>IF(LEFT(D10,1)="H",1,IF(LEFT(D10,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="26">
+        <f>IF(LEFT(F10,1)="H",1,IF(LEFT(F10,1)="C",-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="26">
+        <f>IF(LEFT(D11,1)="H",1,IF(LEFT(D11,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="26">
+        <f>IF(LEFT(F11,1)="H",1,IF(LEFT(F11,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="26">
+        <f>IF(LEFT(D12,1)="H",1,IF(LEFT(D12,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="26">
+        <f>IF(LEFT(F12,1)="H",1,IF(LEFT(F12,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="26">
+        <f>IF(LEFT(D13,1)="H",2,IF(LEFT(D13,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D13" s="30" t="str">
+        <f>IF(SUM(C9:C12)&gt;=3, "Hot", IF(SUM(C9:C12)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+      <c r="E13" s="26">
+        <f>IF(LEFT(F13,1)="H",2,IF(LEFT(F13,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="30" t="str">
+        <f>IF(SUM(E9:E12)&gt;=3, "Hot", IF(SUM(E9:E12)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="26">
+        <f>IF(LEFT(D14,1)="H",1,IF(LEFT(D14,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="26">
+        <f>IF(LEFT(F14,1)="H",1,IF(LEFT(F14,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="26">
+        <f>IF(LEFT(D15,1)="H",1,IF(LEFT(D15,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="26">
+        <f>IF(LEFT(F15,1)="H",1,IF(LEFT(F15,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="26">
+        <f>IF(LEFT(D16,1)="H",1,IF(LEFT(D16,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="26">
+        <f>IF(LEFT(F16,1)="H",1,IF(LEFT(F16,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="26">
+        <f>IF(LEFT(D17,1)="H",1,IF(LEFT(D17,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="26">
+        <f>IF(LEFT(F17,1)="H",1,IF(LEFT(F17,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="26">
+        <f>IF(LEFT(D18,1)="H",2,IF(LEFT(D18,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D18" s="25" t="str">
+        <f>IF(SUM(C14:C17)&gt;=3, "Hot", IF(SUM(C14:C17)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+      <c r="E18" s="26">
+        <f>IF(LEFT(F18,1)="H",2,IF(LEFT(F18,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F18" s="25" t="str">
+        <f>IF(SUM(E14:E17)&gt;=3, "Hot", IF(SUM(E14:E17)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="26">
+        <f>IF(LEFT(D19,1)="H",1,IF(LEFT(D19,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="26">
+        <f>IF(LEFT(F19,1)="H",1,IF(LEFT(F19,1)="C",-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="26">
+        <f>IF(LEFT(D20,1)="H",1,IF(LEFT(D20,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="26">
+        <f>IF(LEFT(F20,1)="H",1,IF(LEFT(F20,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="26">
+        <f>IF(LEFT(D21,1)="H",1,IF(LEFT(D21,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="26">
+        <f>IF(LEFT(F21,1)="H",1,IF(LEFT(F21,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="26">
+        <f>IF(LEFT(D22,1)="H",1,IF(LEFT(D22,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="26">
+        <f>IF(LEFT(F22,1)="H",1,IF(LEFT(F22,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="26">
+        <f>IF(LEFT(D23,1)="H",2,IF(LEFT(D23,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D23" s="25" t="str">
+        <f>IF(SUM(C19:C22)&gt;=3, "Hot", IF(SUM(C19:C22)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+      <c r="E23" s="26">
+        <f>IF(LEFT(F23,1)="H",2,IF(LEFT(F23,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="25" t="str">
+        <f>IF(SUM(E19:E22)&gt;=3, "Hot", IF(SUM(E19:E22)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
+      <c r="B24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="26">
+        <f>IF(LEFT(D24,1)="H",1,IF(LEFT(D24,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="26">
+        <f>IF(LEFT(F24,1)="H",1,IF(LEFT(F24,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="26">
+        <f>IF(LEFT(D25,1)="H",1,IF(LEFT(D25,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="26">
+        <f>IF(LEFT(F25,1)="H",1,IF(LEFT(F25,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="11"/>
+      <c r="B26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="26">
+        <f>IF(LEFT(D26,1)="H",1,IF(LEFT(D26,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="26">
+        <f>IF(LEFT(F26,1)="H",1,IF(LEFT(F26,1)="C",-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="26">
+        <f>IF(LEFT(D27,1)="H",1,IF(LEFT(D27,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="26">
+        <f>IF(LEFT(F27,1)="H",1,IF(LEFT(F27,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="26">
+        <f>IF(LEFT(D28,1)="H",2,IF(LEFT(D28,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D28" s="25" t="str">
+        <f>IF(SUM(C24:C27)&gt;=3, "Hot", IF(SUM(C24:C27)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+      <c r="E28" s="26">
+        <f>IF(LEFT(F28,1)="H",2,IF(LEFT(F28,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="25" t="str">
+        <f>IF(SUM(E24:E27)&gt;=3, "Hot", IF(SUM(E24:E27)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="23">
+        <f>SUM(C13,C18,C23,C28)</f>
+        <v>-4</v>
+      </c>
+      <c r="D29" s="22" t="str">
+        <f>IF(OR(C29=4,C29=-4),"In extreme",IF(C29=0,"In equilibrium",IF(OR(C29&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>In extreme</v>
+      </c>
+      <c r="E29" s="23">
+        <f>SUM(E13,E18,E23,E28)</f>
+        <v>-1</v>
+      </c>
+      <c r="F29" s="22" t="str">
+        <f>IF(OR(E29=4,E29=-4),"In extreme",IF(E29=0,"In equilibrium",IF(OR(E29&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>Relatively pessimistic</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="19">
+        <f>IF(LEFT(D32,1)="H",2,IF(LEFT(D32,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="19">
+        <f>IF(LEFT(F32,1)="H",2,IF(LEFT(F32,1)="C",0,1))</f>
+        <v>2</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="19">
+        <f>IF(LEFT(D33,1)="H",2,IF(LEFT(D33,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="18" t="str">
+        <f>IF(Macro!D7&gt;=3%, "Hot - High", IF(Macro!D7&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+        <v>Cold - Low</v>
+      </c>
+      <c r="E33" s="19">
+        <f>IF(LEFT(F33,1)="H",2,IF(LEFT(F33,1)="C",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="18" t="str">
+        <f>IF(Macro!F7&gt;=3%, "Hot - High", IF(Macro!F7&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+        <v>Mixed - Dormant</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="19">
+        <f>IF(LEFT(D34,1)="H",2,IF(LEFT(D34,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="18" t="str">
+        <f>D10</f>
+        <v>Cold - Negative</v>
+      </c>
+      <c r="E34" s="19">
+        <f>IF(LEFT(F34,1)="H",2,IF(LEFT(F34,1)="C",0,1))</f>
+        <v>2</v>
+      </c>
+      <c r="F34" s="18" t="str">
+        <f>F10</f>
+        <v>Hot - Positive</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="19">
+        <f>IF(LEFT(D35,1)="H",2,IF(LEFT(D35,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="18" t="str">
+        <f>D16</f>
+        <v>Cold - High</v>
+      </c>
+      <c r="E35" s="19">
+        <f>IF(LEFT(F35,1)="H",2,IF(LEFT(F35,1)="C",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="18" t="str">
+        <f>F16</f>
+        <v>Mixed</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="19">
+        <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="18" t="str">
+        <f>D17</f>
+        <v>Cold - Wide</v>
+      </c>
+      <c r="E36" s="19">
+        <f>IF(LEFT(F36,1)="H",2,IF(LEFT(F36,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="18" t="str">
+        <f>F17</f>
+        <v>Cold - Wide</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="16">
+        <f>SUM(C32:C36)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="14">
+        <f>Macro!D7*(1+C37)</f>
+        <v>0.01</v>
+      </c>
+      <c r="E37" s="15">
+        <f>SUM(E32:E36)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="F37" s="14">
+        <f>Macro!F7*(1+E37)</f>
+        <v>3.3600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="19">
+    <dataValidation allowBlank="1" sqref="F29 D29" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
+    <dataValidation type="list" allowBlank="1" sqref="D16 F16" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
+      <formula1>"Hot - Low,Cold - High,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D15 F15" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
+      <formula1>"Hot - Easy,Cold - Restrictive,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D10 F10" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
+      <formula1>"Hot - Positive,Cold - Negative,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D26 F26" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
+      <formula1>"Hot - Strong,Cold - Weak,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D24 F24" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
+      <formula1>"Hot - Average person joins the market,Cold - ""Worse is yet to come"",Mixed - ""Market has bottomed"""</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D19 F19" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
+      <formula1>"Hot - Happy to hold,Cold - Rushing for the exits,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D27 F27" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
+      <formula1>"Hot - Aggressiveness,Cold - Caution and discipline,Hot - Broad reach,Cold - ""It's uninvestable"",Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D22 F22" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
+      <formula1>"Hot - Few,Cold - Many,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D20 F20" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
+      <formula1>"Hot - High,Cold - Low,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D21 F21" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
+      <formula1>"Hot - Optimistic,Cold - Pessimistic,Hot - Sanguine,Cold - Distressed,Hot - Eager to buy,Cold - Uninterested in buying,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D11 F11" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
+      <formula1>"Hot - Eager,Cold - Reticent,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D9 F9" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
+      <formula1>"Hot - Vibrant,Cold - Sluggish,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D25 F25" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
+      <formula1>"Hot - Hard to gain entry,Cold - Open to anyone,Hot - 
+New ones daily,Cold - Only the best can raise money,Hot - GP hold the cards on terms,Cold - LP have bargaining power,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D14 F14" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
+      <formula1>"Hot - Plentiful,Cold - Scarce,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D17 F17" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
+      <formula1>"Hot - Narrow,Cold - Wide,Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32 F32" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
+      <formula1>"Hot - Stimulative, Cold - Tightening, Mixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 F12" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
+      <formula1>"Hot - Minimal, Cold - Rising, Mixed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D36 F34:F36" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D7C574-C860-4070-8ED4-9676BC3C3D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51B7E0A-746B-4221-B686-B7FB7CF4CBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -636,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,10 +742,9 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1034,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,7 +1122,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="46">
-        <v>0.01</v>
+        <v>2.29E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1135,36 +1134,36 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="47"/>
     </row>
   </sheetData>
@@ -1185,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB43275-BEC1-4DF6-B56D-B5F180583A40}">
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1219,7 +1218,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>2.64E-2</v>
+        <v>1.3500000000000002E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1232,7 +1231,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>0.01</v>
+        <v>2.5190000000000001E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1250,7 +1249,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>3.6400000000000002E-2</v>
+        <v>3.8690000000000002E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1760,11 +1759,11 @@
       </c>
       <c r="C33" s="19">
         <f>IF(LEFT(D33,1)="H",2,IF(LEFT(D33,1)="C",0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="18" t="str">
         <f>IF(Macro!D7&gt;=3%, "Hot - High", IF(Macro!D7&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
-        <v>Cold - Low</v>
+        <v>Mixed - Dormant</v>
       </c>
       <c r="E33" s="19">
         <f>IF(LEFT(F33,1)="H",2,IF(LEFT(F33,1)="C",0,1))</f>
@@ -1844,11 +1843,11 @@
       </c>
       <c r="C37" s="16">
         <f>SUM(C32:C36)/10</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>0.01</v>
+        <v>2.5190000000000001E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51B7E0A-746B-4221-B686-B7FB7CF4CBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF6404A-BA6F-4469-A2C1-3558F765BD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF6404A-BA6F-4469-A2C1-3558F765BD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D747BF8-601F-41ED-B5CA-7272617C03C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D747BF8-601F-41ED-B5CA-7272617C03C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C18D014B-6059-4DC7-9CC0-8FFAB7432716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -28,16 +28,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
-    <t>Nominal Default-free rate  (use 10Y Treasury yield if available) =</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
     <t>US</t>
-  </si>
-  <si>
-    <t>Economic performance:</t>
   </si>
   <si>
     <t xml:space="preserve">MOS = </t>
@@ -306,6 +300,12 @@
   </si>
   <si>
     <t>Inflation rate (use 10Y breakeven rate if too volatile) =</t>
+  </si>
+  <si>
+    <t>Economic Drivers:</t>
+  </si>
+  <si>
+    <t>Nominal Risk-free rate  (use 10Y Treasury yield if available) =</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,28 +1052,28 @@
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7">
-        <f>F3*0.8</f>
-        <v>8.0000000000000016E-2</v>
+        <f>F3</f>
+        <v>0.1</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="8">
@@ -1087,14 +1087,14 @@
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>H2</f>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1">
         <v>3.6400000000000002E-2</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="46">
         <v>2.29E-2</v>
@@ -1135,33 +1135,33 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="47"/>
@@ -1184,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB43275-BEC1-4DF6-B56D-B5F180583A40}">
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1201,20 +1201,20 @@
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="43">
         <f>D37</f>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="39">
         <f>IF(C29=4,1.2, IF(C29=-4,1.1,1))</f>
@@ -1263,7 +1263,7 @@
     <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="35" t="str">
@@ -1279,7 +1279,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="34"/>
@@ -1289,87 +1289,87 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="26">
         <f>IF(LEFT(D9,1)="H",1,IF(LEFT(D9,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="26">
         <f>IF(LEFT(F9,1)="H",1,IF(LEFT(F9,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="26">
         <f>IF(LEFT(D10,1)="H",1,IF(LEFT(D10,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="26">
         <f>IF(LEFT(F10,1)="H",1,IF(LEFT(F10,1)="C",-1,0))</f>
         <v>1</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="26">
         <f>IF(LEFT(D11,1)="H",1,IF(LEFT(D11,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="26">
         <f>IF(LEFT(F11,1)="H",1,IF(LEFT(F11,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="26">
         <f>IF(LEFT(D12,1)="H",1,IF(LEFT(D12,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="26">
         <f>IF(LEFT(F12,1)="H",1,IF(LEFT(F12,1)="C",-1,0))</f>
         <v>0</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="26">
         <f>IF(LEFT(D13,1)="H",2,IF(LEFT(D13,1)="C",-1,0))</f>
@@ -1391,87 +1391,87 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="26">
         <f>IF(LEFT(D14,1)="H",1,IF(LEFT(D14,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="26">
         <f>IF(LEFT(F14,1)="H",1,IF(LEFT(F14,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="26">
         <f>IF(LEFT(D15,1)="H",1,IF(LEFT(D15,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="26">
         <f>IF(LEFT(F15,1)="H",1,IF(LEFT(F15,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="26">
         <f>IF(LEFT(D16,1)="H",1,IF(LEFT(D16,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="26">
         <f>IF(LEFT(F16,1)="H",1,IF(LEFT(F16,1)="C",-1,0))</f>
         <v>0</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="26">
         <f>IF(LEFT(D17,1)="H",1,IF(LEFT(D17,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="26">
         <f>IF(LEFT(F17,1)="H",1,IF(LEFT(F17,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="26">
         <f>IF(LEFT(D18,1)="H",2,IF(LEFT(D18,1)="C",-1,0))</f>
@@ -1493,87 +1493,87 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="26">
         <f>IF(LEFT(D19,1)="H",1,IF(LEFT(D19,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="26">
         <f>IF(LEFT(F19,1)="H",1,IF(LEFT(F19,1)="C",-1,0))</f>
         <v>1</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="26">
         <f>IF(LEFT(D20,1)="H",1,IF(LEFT(D20,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="26">
         <f>IF(LEFT(F20,1)="H",1,IF(LEFT(F20,1)="C",-1,0))</f>
         <v>0</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="26">
         <f>IF(LEFT(D21,1)="H",1,IF(LEFT(D21,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="26">
         <f>IF(LEFT(F21,1)="H",1,IF(LEFT(F21,1)="C",-1,0))</f>
         <v>0</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="26">
         <f>IF(LEFT(D22,1)="H",1,IF(LEFT(D22,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="26">
         <f>IF(LEFT(F22,1)="H",1,IF(LEFT(F22,1)="C",-1,0))</f>
         <v>0</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="26">
         <f>IF(LEFT(D23,1)="H",2,IF(LEFT(D23,1)="C",-1,0))</f>
@@ -1595,87 +1595,87 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="26">
         <f>IF(LEFT(D24,1)="H",1,IF(LEFT(D24,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" s="26">
         <f>IF(LEFT(F24,1)="H",1,IF(LEFT(F24,1)="C",-1,0))</f>
         <v>0</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="26">
         <f>IF(LEFT(D25,1)="H",1,IF(LEFT(D25,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25" s="26">
         <f>IF(LEFT(F25,1)="H",1,IF(LEFT(F25,1)="C",-1,0))</f>
         <v>0</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="26">
         <f>IF(LEFT(D26,1)="H",1,IF(LEFT(D26,1)="C",-1,0))</f>
         <v>0</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="26">
         <f>IF(LEFT(F26,1)="H",1,IF(LEFT(F26,1)="C",-1,0))</f>
         <v>1</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="26">
         <f>IF(LEFT(D27,1)="H",1,IF(LEFT(D27,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27" s="26">
         <f>IF(LEFT(F27,1)="H",1,IF(LEFT(F27,1)="C",-1,0))</f>
         <v>0</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="26">
         <f>IF(LEFT(D28,1)="H",2,IF(LEFT(D28,1)="C",-1,0))</f>
@@ -1697,7 +1697,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="23">
         <f>SUM(C13,C18,C23,C28)</f>
@@ -1722,40 +1722,40 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" s="19">
         <f>IF(LEFT(D32,1)="H",2,IF(LEFT(D32,1)="C",0,1))</f>
         <v>0</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32" s="19">
         <f>IF(LEFT(F32,1)="H",2,IF(LEFT(F32,1)="C",0,1))</f>
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" s="19">
         <f>IF(LEFT(D33,1)="H",2,IF(LEFT(D33,1)="C",0,1))</f>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" s="19">
         <f>IF(LEFT(D34,1)="H",2,IF(LEFT(D34,1)="C",0,1))</f>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="19">
         <f>IF(LEFT(D35,1)="H",2,IF(LEFT(D35,1)="C",0,1))</f>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="19">
         <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",0,1))</f>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="16">
         <f>SUM(C32:C36)/10</f>
@@ -1860,12 +1860,12 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C18D014B-6059-4DC7-9CC0-8FFAB7432716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF6DFA0-5AE8-4801-8431-BDBE2F4FEC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF6DFA0-5AE8-4801-8431-BDBE2F4FEC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DEBCB61-5AC6-46CF-BF4B-47FF888C586A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DEBCB61-5AC6-46CF-BF4B-47FF888C586A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2AC312-FFCE-4A26-BD94-0DC6183745DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2AC312-FFCE-4A26-BD94-0DC6183745DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9981D64-D19C-4D59-9889-2D94243EE1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.6400000000000002E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1122,7 +1122,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.29E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.3500000000000002E-2</v>
+        <v>1.2899999999999998E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.5190000000000001E-2</v>
+        <v>2.4420000000000004E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>3.8690000000000002E-2</v>
+        <v>3.7320000000000006E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.5190000000000001E-2</v>
+        <v>2.4420000000000004E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9981D64-D19C-4D59-9889-2D94243EE1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04B8A8E7-FCA9-4BF7-BFC5-381D18955B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,7 +1106,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.5099999999999999E-2</v>
+        <v>3.56E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1122,7 +1122,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.2200000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.2899999999999998E-2</v>
+        <v>1.4599999999999998E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.4420000000000004E-2</v>
+        <v>2.3100000000000002E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>3.7320000000000006E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.4420000000000004E-2</v>
+        <v>2.3100000000000002E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04B8A8E7-FCA9-4BF7-BFC5-381D18955B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32FA13B-8111-4970-8DE9-BA9DD09E2B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.56E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1122,7 +1122,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.1000000000000001E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.4599999999999998E-2</v>
+        <v>1.2400000000000001E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.3100000000000002E-2</v>
+        <v>2.4530000000000003E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>3.7699999999999997E-2</v>
+        <v>3.6930000000000004E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.3100000000000002E-2</v>
+        <v>2.4530000000000003E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32FA13B-8111-4970-8DE9-BA9DD09E2B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0B7C319-E20B-45B0-9EC6-0562E9F65E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.4700000000000002E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1122,7 +1122,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.23E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.2400000000000001E-2</v>
+        <v>1.2899999999999998E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.4530000000000003E-2</v>
+        <v>2.409E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>3.6930000000000004E-2</v>
+        <v>3.6989999999999995E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.4530000000000003E-2</v>
+        <v>2.409E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc/financial_models/Opportunities/Monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0B7C319-E20B-45B0-9EC6-0562E9F65E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B635E18-2083-7B44-A5BA-EAD61F70FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,21 @@
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1037,19 +1048,19 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1066,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -1084,7 +1095,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>70</v>
@@ -1101,12 +1112,12 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.4799999999999998E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1117,12 +1128,12 @@
         <v>3.8159999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.1899999999999999E-2</v>
+        <v>2.2400000000000003E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1133,7 +1144,7 @@
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="48" t="s">
         <v>64</v>
       </c>
@@ -1144,7 +1155,7 @@
       <c r="E9" s="39"/>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="48" t="s">
         <v>65</v>
       </c>
@@ -1155,7 +1166,7 @@
       <c r="E10" s="39"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="48" t="s">
         <v>66</v>
       </c>
@@ -1188,17 +1199,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>62</v>
@@ -1212,26 +1223,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.2899999999999998E-2</v>
+        <v>1.1399999999999993E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
         <v>7.9999999999999967E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.409E-2</v>
+        <v>2.4640000000000006E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1239,7 +1250,7 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
@@ -1249,7 +1260,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>3.6989999999999995E-2</v>
+        <v>3.6040000000000003E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1260,7 +1271,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
         <v>58</v>
@@ -1276,7 +1287,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>57</v>
@@ -1286,7 +1297,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="29" t="s">
         <v>56</v>
@@ -1306,7 +1317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="29" t="s">
         <v>54</v>
@@ -1326,7 +1337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
         <v>51</v>
@@ -1346,7 +1357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>49</v>
@@ -1366,7 +1377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="27" t="s">
         <v>47</v>
@@ -1388,7 +1399,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="29" t="s">
         <v>46</v>
@@ -1408,7 +1419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="29" t="s">
         <v>44</v>
@@ -1428,7 +1439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="29" t="s">
         <v>42</v>
@@ -1448,7 +1459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="29" t="s">
         <v>40</v>
@@ -1468,7 +1479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
         <v>38</v>
@@ -1490,7 +1501,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
         <v>37</v>
@@ -1510,7 +1521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="29" t="s">
         <v>34</v>
@@ -1530,7 +1541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="29" t="s">
         <v>32</v>
@@ -1550,7 +1561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
@@ -1570,7 +1581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="27" t="s">
         <v>28</v>
@@ -1592,7 +1603,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="29" t="s">
         <v>27</v>
@@ -1612,7 +1623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -1632,7 +1643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="29" t="s">
         <v>22</v>
@@ -1652,7 +1663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="29" t="s">
         <v>20</v>
@@ -1672,7 +1683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="27" t="s">
         <v>17</v>
@@ -1694,7 +1705,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
         <v>16</v>
@@ -1716,10 +1727,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -1733,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>14</v>
@@ -1753,7 +1764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -1774,7 +1785,7 @@
         <v>Mixed - Dormant</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
@@ -1795,7 +1806,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1827,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>8</v>
       </c>
@@ -1837,7 +1848,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1858,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.409E-2</v>
+        <v>2.4640000000000006E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>
@@ -1858,12 +1869,12 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>5</v>
       </c>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc/financial_models/Opportunities/Monitor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B635E18-2083-7B44-A5BA-EAD61F70FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3746DC82-D42E-4FA1-893E-914236790BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1048,19 +1037,19 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1077,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -1095,7 +1084,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>70</v>
@@ -1112,12 +1101,12 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.3799999999999997E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1125,15 +1114,15 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1">
-        <v>3.8159999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.159E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.2400000000000003E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1144,7 +1133,7 @@
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="48" t="s">
         <v>64</v>
       </c>
@@ -1155,7 +1144,7 @@
       <c r="E9" s="39"/>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="48" t="s">
         <v>65</v>
       </c>
@@ -1166,7 +1155,7 @@
       <c r="E10" s="39"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="48" t="s">
         <v>66</v>
       </c>
@@ -1199,17 +1188,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>62</v>
@@ -1223,26 +1212,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.1399999999999993E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
         <v>7.9999999999999967E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.4640000000000006E-2</v>
+        <v>2.409E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1250,7 +1239,7 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
@@ -1260,7 +1249,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>3.6040000000000003E-2</v>
+        <v>3.6790000000000003E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1271,7 +1260,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
         <v>58</v>
@@ -1287,7 +1276,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>57</v>
@@ -1297,7 +1286,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="29" t="s">
         <v>56</v>
@@ -1317,7 +1306,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="29" t="s">
         <v>54</v>
@@ -1337,7 +1326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
         <v>51</v>
@@ -1357,7 +1346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>49</v>
@@ -1377,7 +1366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="27" t="s">
         <v>47</v>
@@ -1399,7 +1388,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="29" t="s">
         <v>46</v>
@@ -1419,7 +1408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="29" t="s">
         <v>44</v>
@@ -1439,7 +1428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="29" t="s">
         <v>42</v>
@@ -1459,7 +1448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="29" t="s">
         <v>40</v>
@@ -1479,7 +1468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
         <v>38</v>
@@ -1501,7 +1490,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
         <v>37</v>
@@ -1521,7 +1510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="29" t="s">
         <v>34</v>
@@ -1541,7 +1530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="29" t="s">
         <v>32</v>
@@ -1561,7 +1550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
@@ -1581,7 +1570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="27" t="s">
         <v>28</v>
@@ -1603,7 +1592,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="29" t="s">
         <v>27</v>
@@ -1623,7 +1612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -1643,7 +1632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="29" t="s">
         <v>22</v>
@@ -1663,7 +1652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="29" t="s">
         <v>20</v>
@@ -1683,7 +1672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="27" t="s">
         <v>17</v>
@@ -1705,7 +1694,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
         <v>16</v>
@@ -1727,10 +1716,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -1744,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>14</v>
@@ -1764,7 +1753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +1774,7 @@
         <v>Mixed - Dormant</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
@@ -1806,7 +1795,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +1816,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="11" t="s">
         <v>8</v>
       </c>
@@ -1848,7 +1837,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +1847,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.4640000000000006E-2</v>
+        <v>2.409E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>
@@ -1869,12 +1858,12 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>5</v>
       </c>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3746DC82-D42E-4FA1-893E-914236790BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59570286-5971-4574-B31E-98238A69953F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>China</t>
   </si>
@@ -307,12 +307,15 @@
   <si>
     <t>Nominal Risk-free rate  (use 10Y Treasury yield if available) =</t>
   </si>
+  <si>
+    <t>Requires Manual Input</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +426,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -636,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,6 +760,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1034,7 +1045,7 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,7 +1117,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.4599999999999999E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1114,7 +1125,7 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1">
-        <v>3.159E-2</v>
+        <v>3.4660000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1122,7 +1133,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.1899999999999999E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1154,6 +1165,9 @@
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="47"/>
+      <c r="H10" s="51" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="48" t="s">
@@ -1165,6 +1179,9 @@
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="47"/>
+      <c r="H11" s="51" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1218,7 +1235,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.2699999999999999E-2</v>
+        <v>1.5499999999999996E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1231,7 +1248,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.409E-2</v>
+        <v>2.4420000000000004E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1249,7 +1266,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>3.6790000000000003E-2</v>
+        <v>3.9919999999999997E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1847,7 +1864,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.409E-2</v>
+        <v>2.4420000000000004E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59570286-5971-4574-B31E-98238A69953F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0356D156-75B3-4010-81F9-C137A1EEB083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0356D156-75B3-4010-81F9-C137A1EEB083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D464E1-308A-47EB-9166-DA0756A84AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D464E1-308A-47EB-9166-DA0756A84AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{688EEDF5-D934-4909-AB9E-0E82595B4901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,7 +1045,7 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1084,15 +1084,15 @@
       </c>
       <c r="D3" s="7">
         <f>F3</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H3" s="7">
         <f>F3</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1117,7 +1117,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.7699999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1133,7 +1133,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.2200000000000001E-2</v>
+        <v>2.2099999999999998E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.5499999999999996E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.4420000000000004E-2</v>
+        <v>2.4309999999999998E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>3.9919999999999997E-2</v>
+        <v>4.0209999999999996E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.4420000000000004E-2</v>
+        <v>2.4309999999999998E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{688EEDF5-D934-4909-AB9E-0E82595B4901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D961BAA6-0FF4-430E-B3E2-9A0CFA1A3CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1133,7 +1133,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.2099999999999998E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.5900000000000001E-2</v>
+        <v>1.5099999999999999E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.4309999999999998E-2</v>
+        <v>2.4200000000000003E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.0209999999999996E-2</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.4309999999999998E-2</v>
+        <v>2.4200000000000003E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D961BAA6-0FF4-430E-B3E2-9A0CFA1A3CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCBF534-E0B8-4187-A189-67BD2BF9352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCBF534-E0B8-4187-A189-67BD2BF9352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B22B9D5-F90C-4279-ACA6-C194172DB9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.7100000000000001E-2</v>
+        <v>3.8599999999999995E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1">
-        <v>3.4660000000000003E-2</v>
+        <v>3.6810000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1133,7 +1133,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.2000000000000002E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.5099999999999999E-2</v>
+        <v>1.5999999999999997E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.4200000000000003E-2</v>
+        <v>2.486E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>3.9300000000000002E-2</v>
+        <v>4.0859999999999994E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.4200000000000003E-2</v>
+        <v>2.486E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B22B9D5-F90C-4279-ACA6-C194172DB9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46E705DB-353E-496E-ADFD-0B8841F9872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1117,7 +1117,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.8599999999999995E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1133,7 +1133,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.2599999999999999E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.5999999999999997E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.486E-2</v>
+        <v>2.5850000000000001E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.0859999999999994E-2</v>
+        <v>4.0849999999999997E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.486E-2</v>
+        <v>2.5850000000000001E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46E705DB-353E-496E-ADFD-0B8841F9872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44510C3-C8EE-4589-B760-094B4120A43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.85E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1133,7 +1133,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.35E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.4999999999999999E-2</v>
+        <v>1.5500000000000003E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.5850000000000001E-2</v>
+        <v>2.596E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.0849999999999997E-2</v>
+        <v>4.1460000000000004E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.5850000000000001E-2</v>
+        <v>2.596E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44510C3-C8EE-4589-B760-094B4120A43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ED4E4F-BF93-4D7D-B968-7C1600934C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>China</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>Requires Manual Input</t>
+  </si>
+  <si>
+    <t>Target Portfolio Performance:</t>
+  </si>
+  <si>
+    <t>Target Performance =</t>
   </si>
 </sst>
 </file>
@@ -1042,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1144,42 +1150,75 @@
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="48" t="s">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f>H5</f>
+        <v>HK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="49" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="48" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="50" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="47"/>
-      <c r="H10" s="51" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="47"/>
+      <c r="H13" s="51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="48" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="50" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="47"/>
-      <c r="H11" s="51" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="47"/>
+      <c r="H14" s="51" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1188,9 +1227,9 @@
     <dataValidation allowBlank="1" sqref="D3" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{05C6860A-F093-492E-A0AF-7D2134D3C356}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{286AD228-59EC-4FB0-A64C-3CB536B18819}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{44FDAB98-97BD-4C87-B095-E2260A9245A6}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{05C6860A-F093-492E-A0AF-7D2134D3C356}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{286AD228-59EC-4FB0-A64C-3CB536B18819}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{44FDAB98-97BD-4C87-B095-E2260A9245A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ED4E4F-BF93-4D7D-B968-7C1600934C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64AE201-B419-4ED9-8AE6-4D14E0DA1079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1054,19 +1065,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1083,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -1101,7 +1112,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>70</v>
@@ -1118,12 +1129,12 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>3.9100000000000003E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1131,15 +1142,15 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1">
-        <v>3.6810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3.814E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.3599999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1150,7 +1161,7 @@
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
         <v>73</v>
@@ -1167,7 +1178,7 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>74</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="48" t="s">
         <v>64</v>
       </c>
@@ -1194,7 +1205,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="48" t="s">
         <v>65</v>
       </c>
@@ -1208,7 +1219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="48" t="s">
         <v>66</v>
       </c>
@@ -1244,17 +1255,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>62</v>
@@ -1268,26 +1279,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.5500000000000003E-2</v>
+        <v>1.9500000000000003E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
         <v>7.9999999999999967E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.596E-2</v>
+        <v>2.5300000000000003E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1295,7 +1306,7 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
@@ -1305,7 +1316,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.1460000000000004E-2</v>
+        <v>4.4800000000000006E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1316,7 +1327,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
         <v>58</v>
@@ -1332,7 +1343,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>57</v>
@@ -1342,7 +1353,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="11"/>
       <c r="B9" s="29" t="s">
         <v>56</v>
@@ -1362,7 +1373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="11"/>
       <c r="B10" s="29" t="s">
         <v>54</v>
@@ -1382,7 +1393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
         <v>51</v>
@@ -1402,7 +1413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>49</v>
@@ -1422,7 +1433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="27" t="s">
         <v>47</v>
@@ -1444,7 +1455,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="29" t="s">
         <v>46</v>
@@ -1464,7 +1475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="29" t="s">
         <v>44</v>
@@ -1484,7 +1495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="29" t="s">
         <v>42</v>
@@ -1504,7 +1515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="29" t="s">
         <v>40</v>
@@ -1524,7 +1535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
         <v>38</v>
@@ -1546,7 +1557,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
         <v>37</v>
@@ -1566,7 +1577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="29" t="s">
         <v>34</v>
@@ -1586,7 +1597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="29" t="s">
         <v>32</v>
@@ -1606,7 +1617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
@@ -1626,7 +1637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="27" t="s">
         <v>28</v>
@@ -1648,7 +1659,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="29" t="s">
         <v>27</v>
@@ -1668,7 +1679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -1688,7 +1699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="29" t="s">
         <v>22</v>
@@ -1708,7 +1719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="29" t="s">
         <v>20</v>
@@ -1728,7 +1739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="27" t="s">
         <v>17</v>
@@ -1750,7 +1761,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
         <v>16</v>
@@ -1772,10 +1783,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -1789,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>14</v>
@@ -1809,7 +1820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -1830,7 +1841,7 @@
         <v>Mixed - Dormant</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
@@ -1851,7 +1862,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
@@ -1872,7 +1883,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="11" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1904,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +1914,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.596E-2</v>
+        <v>2.5300000000000003E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>
@@ -1914,12 +1925,12 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>5</v>
       </c>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64AE201-B419-4ED9-8AE6-4D14E0DA1079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DBEC83F-4591-451E-B78D-8FCDDD27C1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40470" yWindow="6210" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1065,19 +1054,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1094,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -1112,7 +1101,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>70</v>
@@ -1129,12 +1118,12 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>4.2500000000000003E-2</v>
+        <v>4.2699999999999995E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1142,10 +1131,10 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1">
-        <v>3.814E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3.8149999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
@@ -1161,7 +1150,7 @@
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
         <v>73</v>
@@ -1178,7 +1167,7 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>74</v>
       </c>
@@ -1194,7 +1183,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="48" t="s">
         <v>64</v>
       </c>
@@ -1205,7 +1194,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="48" t="s">
         <v>65</v>
       </c>
@@ -1219,7 +1208,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="48" t="s">
         <v>66</v>
       </c>
@@ -1255,17 +1244,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>62</v>
@@ -1279,20 +1268,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.9500000000000003E-2</v>
+        <v>1.9699999999999995E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
         <v>7.9999999999999967E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
         <v>60</v>
       </c>
@@ -1306,7 +1295,7 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
@@ -1316,7 +1305,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.4800000000000006E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1327,7 +1316,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
         <v>58</v>
@@ -1343,7 +1332,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>57</v>
@@ -1353,7 +1342,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="29" t="s">
         <v>56</v>
@@ -1373,7 +1362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="29" t="s">
         <v>54</v>
@@ -1393,7 +1382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
         <v>51</v>
@@ -1413,7 +1402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>49</v>
@@ -1433,7 +1422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="27" t="s">
         <v>47</v>
@@ -1455,7 +1444,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="29" t="s">
         <v>46</v>
@@ -1475,7 +1464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="29" t="s">
         <v>44</v>
@@ -1495,7 +1484,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="29" t="s">
         <v>42</v>
@@ -1515,7 +1504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="29" t="s">
         <v>40</v>
@@ -1535,7 +1524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
         <v>38</v>
@@ -1557,7 +1546,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
         <v>37</v>
@@ -1577,7 +1566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="29" t="s">
         <v>34</v>
@@ -1597,7 +1586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="29" t="s">
         <v>32</v>
@@ -1617,7 +1606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
@@ -1637,7 +1626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="27" t="s">
         <v>28</v>
@@ -1659,7 +1648,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="29" t="s">
         <v>27</v>
@@ -1679,7 +1668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -1699,7 +1688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="29" t="s">
         <v>22</v>
@@ -1719,7 +1708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="29" t="s">
         <v>20</v>
@@ -1739,7 +1728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="27" t="s">
         <v>17</v>
@@ -1761,7 +1750,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
         <v>16</v>
@@ -1783,10 +1772,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -1800,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>14</v>
@@ -1820,7 +1809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -1841,7 +1830,7 @@
         <v>Mixed - Dormant</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
@@ -1862,7 +1851,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +1872,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="11" t="s">
         <v>8</v>
       </c>
@@ -1904,7 +1893,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
@@ -1925,12 +1914,12 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>5</v>
       </c>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DBEC83F-4591-451E-B78D-8FCDDD27C1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0C9E77-FA6C-4D7D-A94C-339CF8B48941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40470" yWindow="6210" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38160" yWindow="6510" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0C9E77-FA6C-4D7D-A94C-339CF8B48941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B6ACF03-3703-4592-B0C5-85E68F3BAB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38160" yWindow="6510" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1330" yWindow="2700" windowWidth="14400" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -5,21 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B6ACF03-3703-4592-B0C5-85E68F3BAB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F5A88AD-EA43-454B-9BE6-1264B0106498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="2700" windowWidth="14400" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1054,19 +1065,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1083,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -1101,7 +1112,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>70</v>
@@ -1118,12 +1129,12 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>4.2699999999999995E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1134,12 +1145,12 @@
         <v>3.8149999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.3E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1150,7 +1161,7 @@
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
         <v>73</v>
@@ -1167,7 +1178,7 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>74</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="48" t="s">
         <v>64</v>
       </c>
@@ -1194,7 +1205,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="48" t="s">
         <v>65</v>
       </c>
@@ -1208,7 +1219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="48" t="s">
         <v>66</v>
       </c>
@@ -1244,17 +1255,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>62</v>
@@ -1268,26 +1279,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.9699999999999995E-2</v>
+        <v>1.9799999999999998E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
         <v>7.9999999999999967E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.5300000000000003E-2</v>
+        <v>2.5520000000000001E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1295,7 +1306,7 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
@@ -1305,7 +1316,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.4999999999999998E-2</v>
+        <v>4.5319999999999999E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1316,7 +1327,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
         <v>58</v>
@@ -1332,7 +1343,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>57</v>
@@ -1342,7 +1353,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="11"/>
       <c r="B9" s="29" t="s">
         <v>56</v>
@@ -1362,7 +1373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="11"/>
       <c r="B10" s="29" t="s">
         <v>54</v>
@@ -1382,7 +1393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
         <v>51</v>
@@ -1402,7 +1413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>49</v>
@@ -1422,7 +1433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="27" t="s">
         <v>47</v>
@@ -1444,7 +1455,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="29" t="s">
         <v>46</v>
@@ -1464,7 +1475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="29" t="s">
         <v>44</v>
@@ -1484,7 +1495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="29" t="s">
         <v>42</v>
@@ -1504,7 +1515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="29" t="s">
         <v>40</v>
@@ -1524,7 +1535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
         <v>38</v>
@@ -1546,7 +1557,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
         <v>37</v>
@@ -1566,7 +1577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="29" t="s">
         <v>34</v>
@@ -1586,7 +1597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="29" t="s">
         <v>32</v>
@@ -1606,7 +1617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
@@ -1626,7 +1637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="27" t="s">
         <v>28</v>
@@ -1648,7 +1659,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="29" t="s">
         <v>27</v>
@@ -1668,7 +1679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -1688,7 +1699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="29" t="s">
         <v>22</v>
@@ -1708,7 +1719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="29" t="s">
         <v>20</v>
@@ -1728,7 +1739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="27" t="s">
         <v>17</v>
@@ -1750,7 +1761,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
         <v>16</v>
@@ -1772,10 +1783,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -1789,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>14</v>
@@ -1809,7 +1820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -1830,7 +1841,7 @@
         <v>Mixed - Dormant</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
@@ -1851,7 +1862,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
@@ -1872,7 +1883,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="11" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1904,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +1914,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.5300000000000003E-2</v>
+        <v>2.5520000000000001E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>
@@ -1914,12 +1925,12 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>5</v>
       </c>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F5A88AD-EA43-454B-9BE6-1264B0106498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFAF7909-FB06-4EF9-90D1-A6CC02E2B013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1134,7 +1134,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>4.2699999999999995E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.3199999999999998E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.9799999999999998E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.5520000000000001E-2</v>
+        <v>2.5630000000000003E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.5319999999999999E-2</v>
+        <v>4.5030000000000001E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.5520000000000001E-2</v>
+        <v>2.5630000000000003E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -5,32 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFAF7909-FB06-4EF9-90D1-A6CC02E2B013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5844A882-4A87-4BB6-B0FC-6B3BA8B57B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1065,19 +1054,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1094,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -1112,7 +1101,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>70</v>
@@ -1129,12 +1118,12 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>4.2699999999999995E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1145,12 +1134,12 @@
         <v>3.8149999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.3300000000000001E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1161,7 +1150,7 @@
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
         <v>73</v>
@@ -1178,7 +1167,7 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>74</v>
       </c>
@@ -1194,7 +1183,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="48" t="s">
         <v>64</v>
       </c>
@@ -1205,7 +1194,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="48" t="s">
         <v>65</v>
       </c>
@@ -1219,7 +1208,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="48" t="s">
         <v>66</v>
       </c>
@@ -1255,17 +1244,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>62</v>
@@ -1279,26 +1268,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.9399999999999994E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
         <v>7.9999999999999967E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.5630000000000003E-2</v>
+        <v>2.5850000000000001E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1306,7 +1295,7 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
@@ -1316,7 +1305,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.5030000000000001E-2</v>
+        <v>4.5249999999999999E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1327,7 +1316,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
         <v>58</v>
@@ -1343,7 +1332,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>57</v>
@@ -1353,7 +1342,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="29" t="s">
         <v>56</v>
@@ -1373,7 +1362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="29" t="s">
         <v>54</v>
@@ -1393,7 +1382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
         <v>51</v>
@@ -1413,7 +1402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>49</v>
@@ -1433,7 +1422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="27" t="s">
         <v>47</v>
@@ -1455,7 +1444,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="29" t="s">
         <v>46</v>
@@ -1475,7 +1464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="29" t="s">
         <v>44</v>
@@ -1495,7 +1484,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="29" t="s">
         <v>42</v>
@@ -1515,7 +1504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="29" t="s">
         <v>40</v>
@@ -1535,7 +1524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
         <v>38</v>
@@ -1557,7 +1546,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
         <v>37</v>
@@ -1577,7 +1566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="29" t="s">
         <v>34</v>
@@ -1597,7 +1586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="29" t="s">
         <v>32</v>
@@ -1617,7 +1606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
@@ -1637,7 +1626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="27" t="s">
         <v>28</v>
@@ -1659,7 +1648,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="29" t="s">
         <v>27</v>
@@ -1679,7 +1668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -1699,7 +1688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="29" t="s">
         <v>22</v>
@@ -1719,7 +1708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="29" t="s">
         <v>20</v>
@@ -1739,7 +1728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="27" t="s">
         <v>17</v>
@@ -1761,7 +1750,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
         <v>16</v>
@@ -1783,10 +1772,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -1800,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>14</v>
@@ -1820,7 +1809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -1841,7 +1830,7 @@
         <v>Mixed - Dormant</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
@@ -1862,7 +1851,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +1872,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="11" t="s">
         <v>8</v>
       </c>
@@ -1904,7 +1893,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
@@ -1914,7 +1903,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.5630000000000003E-2</v>
+        <v>2.5850000000000001E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>
@@ -1925,12 +1914,12 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>5</v>
       </c>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5844A882-4A87-4BB6-B0FC-6B3BA8B57B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0E41AB-548F-4B2E-9C8D-1BA95058105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36465" yWindow="8235" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1123,7 +1123,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>4.2900000000000001E-2</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1139,7 +1139,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.35E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>1.9400000000000001E-2</v>
+        <v>2.2199999999999998E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.5850000000000001E-2</v>
+        <v>2.5630000000000003E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.5249999999999999E-2</v>
+        <v>4.7829999999999998E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.5850000000000001E-2</v>
+        <v>2.5630000000000003E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0E41AB-548F-4B2E-9C8D-1BA95058105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66D91C86-C9D1-45D2-A2EC-68CD700EF596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36465" yWindow="8235" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -321,11 +332,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -333,7 +344,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -412,7 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -428,15 +439,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -769,8 +787,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1054,19 +1072,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1083,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -1101,7 +1119,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>70</v>
@@ -1118,12 +1136,12 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>4.5499999999999999E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1131,15 +1149,15 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1">
-        <v>3.8149999999999996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4.2069999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.3300000000000001E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1150,7 +1168,7 @@
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
         <v>73</v>
@@ -1167,7 +1185,7 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>74</v>
       </c>
@@ -1183,7 +1201,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="48" t="s">
         <v>64</v>
       </c>
@@ -1194,7 +1212,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13" s="48" t="s">
         <v>65</v>
       </c>
@@ -1208,7 +1226,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="48" t="s">
         <v>66</v>
       </c>
@@ -1223,6 +1241,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" sqref="D3" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
   </dataValidations>
@@ -1244,17 +1263,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>62</v>
@@ -1268,26 +1287,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>2.2199999999999998E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
         <v>7.9999999999999967E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.5630000000000003E-2</v>
+        <v>2.5410000000000002E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1295,7 +1314,7 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
@@ -1305,7 +1324,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.7829999999999998E-2</v>
+        <v>4.9509999999999998E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1316,7 +1335,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
         <v>58</v>
@@ -1332,7 +1351,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>57</v>
@@ -1342,7 +1361,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="29" t="s">
         <v>56</v>
@@ -1362,7 +1381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="29" t="s">
         <v>54</v>
@@ -1382,7 +1401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
         <v>51</v>
@@ -1402,7 +1421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>49</v>
@@ -1422,7 +1441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="27" t="s">
         <v>47</v>
@@ -1444,7 +1463,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="29" t="s">
         <v>46</v>
@@ -1464,7 +1483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="29" t="s">
         <v>44</v>
@@ -1484,7 +1503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="29" t="s">
         <v>42</v>
@@ -1504,7 +1523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="29" t="s">
         <v>40</v>
@@ -1524,7 +1543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
         <v>38</v>
@@ -1546,7 +1565,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
         <v>37</v>
@@ -1566,7 +1585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="29" t="s">
         <v>34</v>
@@ -1586,7 +1605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" s="29" t="s">
         <v>32</v>
@@ -1606,7 +1625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
@@ -1626,7 +1645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="27" t="s">
         <v>28</v>
@@ -1648,7 +1667,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="29" t="s">
         <v>27</v>
@@ -1668,7 +1687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -1688,7 +1707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="29" t="s">
         <v>22</v>
@@ -1708,7 +1727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="29" t="s">
         <v>20</v>
@@ -1728,7 +1747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="27" t="s">
         <v>17</v>
@@ -1750,7 +1769,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
         <v>16</v>
@@ -1772,10 +1791,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -1789,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>14</v>
@@ -1809,7 +1828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -1830,7 +1849,7 @@
         <v>Mixed - Dormant</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
@@ -1851,7 +1870,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
@@ -1872,7 +1891,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1912,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +1922,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.5630000000000003E-2</v>
+        <v>2.5410000000000002E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>
@@ -1914,17 +1933,18 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="19">
     <dataValidation allowBlank="1" sqref="F29 D29" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
     <dataValidation type="list" allowBlank="1" sqref="D16 F16" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc/financial_models/Opportunities/Monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66D91C86-C9D1-45D2-A2EC-68CD700EF596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{832C731C-4746-4042-ABB1-D4F7608613AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -336,7 +336,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -344,7 +344,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -423,7 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -439,20 +439,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -787,8 +787,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1072,19 +1072,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1101,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -1119,7 +1119,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>70</v>
@@ -1136,12 +1136,12 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>4.7199999999999999E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1152,12 +1152,12 @@
         <v>4.2069999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.3099999999999999E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1168,7 +1168,7 @@
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
         <v>73</v>
@@ -1185,7 +1185,7 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>74</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="48" t="s">
         <v>64</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="48" t="s">
         <v>65</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="48" t="s">
         <v>66</v>
       </c>
@@ -1263,17 +1263,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>62</v>
@@ -1287,26 +1287,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>2.41E-2</v>
+        <v>2.4600000000000004E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
         <v>7.9999999999999967E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.5410000000000002E-2</v>
+        <v>2.5520000000000001E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1314,7 +1314,7 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>4.9509999999999998E-2</v>
+        <v>5.0120000000000005E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1335,7 +1335,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
         <v>58</v>
@@ -1351,7 +1351,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>57</v>
@@ -1361,7 +1361,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="29" t="s">
         <v>56</v>
@@ -1381,7 +1381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="29" t="s">
         <v>54</v>
@@ -1401,7 +1401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
         <v>51</v>
@@ -1421,7 +1421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>49</v>
@@ -1441,7 +1441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="27" t="s">
         <v>47</v>
@@ -1463,7 +1463,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="29" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="29" t="s">
         <v>44</v>
@@ -1503,7 +1503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="29" t="s">
         <v>42</v>
@@ -1523,7 +1523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="29" t="s">
         <v>40</v>
@@ -1543,7 +1543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
         <v>38</v>
@@ -1565,7 +1565,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
         <v>37</v>
@@ -1585,7 +1585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="29" t="s">
         <v>34</v>
@@ -1605,7 +1605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="29" t="s">
         <v>32</v>
@@ -1625,7 +1625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
@@ -1645,7 +1645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="27" t="s">
         <v>28</v>
@@ -1667,7 +1667,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="29" t="s">
         <v>27</v>
@@ -1687,7 +1687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -1707,7 +1707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="29" t="s">
         <v>22</v>
@@ -1727,7 +1727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="29" t="s">
         <v>20</v>
@@ -1747,7 +1747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="27" t="s">
         <v>17</v>
@@ -1769,7 +1769,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
         <v>16</v>
@@ -1791,10 +1791,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>14</v>
@@ -1828,7 +1828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>Mixed - Dormant</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>8</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.5410000000000002E-2</v>
+        <v>2.5520000000000001E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>
@@ -1933,12 +1933,12 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>5</v>
       </c>

--- a/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Macro_Monitor.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc/financial_models/Opportunities/Monitor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{832C731C-4746-4042-ABB1-D4F7608613AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5076E092-C1B4-47A5-98F6-AE05D64908A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -332,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,8 +776,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1072,19 +1061,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1101,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -1119,7 +1108,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>70</v>
@@ -1136,12 +1125,12 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="1">
-        <v>4.7800000000000002E-2</v>
+        <v>4.3899999999999995E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -1149,15 +1138,15 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1">
-        <v>4.2069999999999996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.3019999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="46">
-        <v>2.3199999999999998E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="46">
@@ -1168,7 +1157,7 @@
         <v>1.5679999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
         <v>73</v>
@@ -1185,7 +1174,7 @@
         <v>HK</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>74</v>
       </c>
@@ -1201,7 +1190,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" s="48" t="s">
         <v>64</v>
       </c>
@@ -1212,7 +1201,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13" s="48" t="s">
         <v>65</v>
       </c>
@@ -1226,7 +1215,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" s="48" t="s">
         <v>66</v>
       </c>
@@ -1263,17 +1252,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>62</v>
@@ -1287,26 +1276,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="45">
         <f>Macro!D6-Macro!D7</f>
-        <v>2.4600000000000004E-2</v>
+        <v>2.1699999999999994E-2</v>
       </c>
       <c r="F3" s="45">
         <f>Macro!F6-Macro!F7</f>
         <v>7.9999999999999967E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="43">
         <f>D37</f>
-        <v>2.5520000000000001E-2</v>
+        <v>2.4420000000000004E-2</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="41">
@@ -1314,7 +1303,7 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
@@ -1324,7 +1313,7 @@
       </c>
       <c r="D5" s="14">
         <f>SUM(D3:D4)</f>
-        <v>5.0120000000000005E-2</v>
+        <v>4.6119999999999994E-2</v>
       </c>
       <c r="E5" s="38">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
@@ -1335,7 +1324,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
         <v>58</v>
@@ -1351,7 +1340,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>57</v>
@@ -1361,7 +1350,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="11"/>
       <c r="B9" s="29" t="s">
         <v>56</v>
@@ -1381,7 +1370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="29" t="s">
         <v>54</v>
@@ -1401,7 +1390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
         <v>51</v>
@@ -1421,7 +1410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>49</v>
@@ -1441,7 +1430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="11"/>
       <c r="B13" s="27" t="s">
         <v>47</v>
@@ -1463,7 +1452,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="11"/>
       <c r="B14" s="29" t="s">
         <v>46</v>
@@ -1483,7 +1472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="11"/>
       <c r="B15" s="29" t="s">
         <v>44</v>
@@ -1503,7 +1492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="11"/>
       <c r="B16" s="29" t="s">
         <v>42</v>
@@ -1523,7 +1512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="11"/>
       <c r="B17" s="29" t="s">
         <v>40</v>
@@ -1543,7 +1532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="11"/>
       <c r="B18" s="27" t="s">
         <v>38</v>
@@ -1565,7 +1554,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="11"/>
       <c r="B19" s="29" t="s">
         <v>37</v>
@@ -1585,7 +1574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="29" t="s">
         <v>34</v>
@@ -1605,7 +1594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="11"/>
       <c r="B21" s="29" t="s">
         <v>32</v>
@@ -1625,7 +1614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
         <v>30</v>
@@ -1645,7 +1634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="11"/>
       <c r="B23" s="27" t="s">
         <v>28</v>
@@ -1667,7 +1656,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="11"/>
       <c r="B24" s="29" t="s">
         <v>27</v>
@@ -1687,7 +1676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="11"/>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -1707,7 +1696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="11"/>
       <c r="B26" s="29" t="s">
         <v>22</v>
@@ -1727,7 +1716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="11"/>
       <c r="B27" s="29" t="s">
         <v>20</v>
@@ -1747,7 +1736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="11"/>
       <c r="B28" s="27" t="s">
         <v>17</v>
@@ -1769,7 +1758,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
         <v>16</v>
@@ -1791,10 +1780,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -1808,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>14</v>
@@ -1828,7 +1817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1838,7 @@
         <v>Mixed - Dormant</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1859,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
@@ -1891,7 +1880,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" s="11" t="s">
         <v>8</v>
       </c>
@@ -1912,7 +1901,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +1911,7 @@
       </c>
       <c r="D37" s="14">
         <f>Macro!D7*(1+C37)</f>
-        <v>2.5520000000000001E-2</v>
+        <v>2.4420000000000004E-2</v>
       </c>
       <c r="E37" s="15">
         <f>SUM(E32:E36)/10</f>
@@ -1933,12 +1922,12 @@
         <v>3.3600000000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>5</v>
       </c>
